--- a/results/ugrad-009-01/ugrad-009-01-stats-terms-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-stats-terms-20.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49640AF1-3ECA-434B-B782-783B9952E417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F37AF70-4B33-46EB-A7B2-E6720ACD91BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,12 +709,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ugrad-009-01-stats-20'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ugrad-009-01-stats-20'!$G$2:$G$22</c:f>
+              <c:f>'ugrad-009-01-stats-20'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.63513513513513509</c:v>
                 </c:pt>
@@ -774,9 +843,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.55813953488372092</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.61305749511815322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,12 +877,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ugrad-009-01-stats-20'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ugrad-009-01-stats-20'!$H$2:$H$22</c:f>
+              <c:f>'ugrad-009-01-stats-20'!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.27027027027027029</c:v>
                 </c:pt>
@@ -876,9 +1011,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.2441860465116279</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24585061380350534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,12 +1045,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ugrad-009-01-stats-20'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ugrad-009-01-stats-20'!$I$2:$I$22</c:f>
+              <c:f>'ugrad-009-01-stats-20'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>9.45945945945946E-2</c:v>
                 </c:pt>
@@ -978,9 +1179,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.19767441860465115</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.14109189107834136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,6 +1209,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2077,7 +2276,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
